--- a/Code/Results/Cases/Case_0_68/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_68/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.151353320742146</v>
+        <v>0.04969111061828357</v>
       </c>
       <c r="D2">
-        <v>0.112165560719454</v>
+        <v>0.2107476850597223</v>
       </c>
       <c r="E2">
-        <v>0.1459082474747611</v>
+        <v>0.1680132064088546</v>
       </c>
       <c r="F2">
-        <v>1.623710477617507</v>
+        <v>1.276671991392575</v>
       </c>
       <c r="G2">
-        <v>1.359162961189128</v>
+        <v>0.7614461594884006</v>
       </c>
       <c r="H2">
-        <v>0.7123881736341957</v>
+        <v>0.7362247279381791</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2195916495684003</v>
+        <v>0.1838998710622519</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.325936529764817</v>
+        <v>3.002323868125757</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1306297015346161</v>
+        <v>0.04408939871433404</v>
       </c>
       <c r="D3">
-        <v>0.1046783009983585</v>
+        <v>0.2101148881426838</v>
       </c>
       <c r="E3">
-        <v>0.1309345934345494</v>
+        <v>0.1653876853704439</v>
       </c>
       <c r="F3">
-        <v>1.430159731988311</v>
+        <v>1.235354089528201</v>
       </c>
       <c r="G3">
-        <v>1.183735308740012</v>
+        <v>0.7201967886405214</v>
       </c>
       <c r="H3">
-        <v>0.6353758814913135</v>
+        <v>0.7216148393470121</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1938054134748626</v>
+        <v>0.1786267740461298</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.792358916248418</v>
+        <v>2.883864273825338</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.118063448542884</v>
+        <v>0.04066648080546997</v>
       </c>
       <c r="D4">
-        <v>0.1002290885304902</v>
+        <v>0.2098108844848454</v>
       </c>
       <c r="E4">
-        <v>0.1219599220516692</v>
+        <v>0.163866114486094</v>
       </c>
       <c r="F4">
-        <v>1.31365559037333</v>
+        <v>1.210749221148646</v>
       </c>
       <c r="G4">
-        <v>1.077892611268055</v>
+        <v>0.6953400628318036</v>
       </c>
       <c r="H4">
-        <v>0.5891523372850713</v>
+        <v>0.7130539717894635</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1783088153418859</v>
+        <v>0.1755003753982791</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.470912885329938</v>
+        <v>2.812967843030606</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1129768371983175</v>
+        <v>0.03927570747256937</v>
       </c>
       <c r="D5">
-        <v>0.09845080691357566</v>
+        <v>0.2097082792852802</v>
       </c>
       <c r="E5">
-        <v>0.1183528688171691</v>
+        <v>0.1632687989183026</v>
       </c>
       <c r="F5">
-        <v>1.266706045450405</v>
+        <v>1.200914363468556</v>
       </c>
       <c r="G5">
-        <v>1.035176929787767</v>
+        <v>0.6853285548017567</v>
       </c>
       <c r="H5">
-        <v>0.570557832476922</v>
+        <v>0.7096682597508845</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.172069738888915</v>
+        <v>0.1742542540484706</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.341305405013827</v>
+        <v>2.784537893400568</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1121341225506427</v>
+        <v>0.03904501583093634</v>
       </c>
       <c r="D6">
-        <v>0.09815755960115524</v>
+        <v>0.2096925275957631</v>
       </c>
       <c r="E6">
-        <v>0.1177568145829397</v>
+        <v>0.1631709877360947</v>
       </c>
       <c r="F6">
-        <v>1.258940231840711</v>
+        <v>1.199292866790941</v>
       </c>
       <c r="G6">
-        <v>1.028107637248851</v>
+        <v>0.6836732519808351</v>
       </c>
       <c r="H6">
-        <v>0.5674841407522848</v>
+        <v>0.7091122775099876</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1710380886573049</v>
+        <v>0.174049020107006</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.319863109774587</v>
+        <v>2.779844922308769</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1179947171310687</v>
+        <v>0.04064770786612826</v>
       </c>
       <c r="D7">
-        <v>0.1002049681293116</v>
+        <v>0.2098094145292961</v>
       </c>
       <c r="E7">
-        <v>0.1219110790850984</v>
+        <v>0.1638579668473596</v>
       </c>
       <c r="F7">
-        <v>1.313020356511345</v>
+        <v>1.210615808670951</v>
       </c>
       <c r="G7">
-        <v>1.077314917001928</v>
+        <v>0.6952045678090997</v>
       </c>
       <c r="H7">
-        <v>0.588900617566452</v>
+        <v>0.7130078943511364</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1782243765916647</v>
+        <v>0.1754834568576626</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.469159561522247</v>
+        <v>2.812582562290174</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.144171549664307</v>
+        <v>0.04775616062535448</v>
       </c>
       <c r="D8">
-        <v>0.1095517365384566</v>
+        <v>0.2105119633120083</v>
       </c>
       <c r="E8">
-        <v>0.1406967589342081</v>
+        <v>0.1670891265870758</v>
       </c>
       <c r="F8">
-        <v>1.556451209984132</v>
+        <v>1.262266643986962</v>
       </c>
       <c r="G8">
-        <v>1.298253335191163</v>
+        <v>0.7471253876040294</v>
       </c>
       <c r="H8">
-        <v>0.6855981247848888</v>
+        <v>0.7311021441241508</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2106253666086815</v>
+        <v>0.1820585575032538</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.14057293947252</v>
+        <v>2.96109663284426</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.197030212359266</v>
+        <v>0.06183100901742478</v>
       </c>
       <c r="D9">
-        <v>0.1291730613794613</v>
+        <v>0.2125597742663388</v>
       </c>
       <c r="E9">
-        <v>0.1795170167057307</v>
+        <v>0.174145148148952</v>
       </c>
       <c r="F9">
-        <v>2.055353575259019</v>
+        <v>1.369645234141359</v>
       </c>
       <c r="G9">
-        <v>1.749031077697538</v>
+        <v>0.8527049597045959</v>
       </c>
       <c r="H9">
-        <v>0.8848912640510207</v>
+        <v>0.7698429204376112</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2772572791161139</v>
+        <v>0.1958398391220157</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.514461767173543</v>
+        <v>3.266996416250322</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2372097107757583</v>
+        <v>0.07226051778398812</v>
       </c>
       <c r="D10">
-        <v>0.1445567155731027</v>
+        <v>0.2144724038749786</v>
       </c>
       <c r="E10">
-        <v>0.2096169174505818</v>
+        <v>0.1797709608776827</v>
       </c>
       <c r="F10">
-        <v>2.439613863238606</v>
+        <v>1.452295328595596</v>
       </c>
       <c r="G10">
-        <v>2.094999986976205</v>
+        <v>0.9326177770774393</v>
       </c>
       <c r="H10">
-        <v>1.039109971570412</v>
+        <v>0.8003065429870162</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3287501219153057</v>
+        <v>0.2065133899800884</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>6.571442345150103</v>
+        <v>3.50081688383699</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.255882933334604</v>
+        <v>0.07702584964360426</v>
       </c>
       <c r="D11">
-        <v>0.1518098721261225</v>
+        <v>0.215431072439884</v>
       </c>
       <c r="E11">
-        <v>0.2237452571431504</v>
+        <v>0.1824269134105236</v>
       </c>
       <c r="F11">
-        <v>2.619416415706411</v>
+        <v>1.490721737755223</v>
       </c>
       <c r="G11">
-        <v>2.256625256362355</v>
+        <v>0.9694922927974687</v>
       </c>
       <c r="H11">
-        <v>1.111437154970133</v>
+        <v>0.8146031334345594</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3528897467783025</v>
+        <v>0.2114898347394103</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>7.065792490401066</v>
+        <v>3.60918982072053</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2630203435572156</v>
+        <v>0.07883345327934421</v>
       </c>
       <c r="D12">
-        <v>0.1545972474637551</v>
+        <v>0.2158068242919313</v>
       </c>
       <c r="E12">
-        <v>0.229166536685895</v>
+        <v>0.1834466062456741</v>
       </c>
       <c r="F12">
-        <v>2.68832877849087</v>
+        <v>1.505392597165354</v>
       </c>
       <c r="G12">
-        <v>2.318534161272169</v>
+        <v>0.9835314671215656</v>
       </c>
       <c r="H12">
-        <v>1.139182346173612</v>
+        <v>0.8200801398339195</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3621488572636054</v>
+        <v>0.2133917932219589</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>7.255230418049393</v>
+        <v>3.650518376122136</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.261480067018681</v>
+        <v>0.07844401556081948</v>
       </c>
       <c r="D13">
-        <v>0.1539950538698491</v>
+        <v>0.2157253337205844</v>
       </c>
       <c r="E13">
-        <v>0.2279956557142242</v>
+        <v>0.1832263766266991</v>
       </c>
       <c r="F13">
-        <v>2.67344876394165</v>
+        <v>1.50222763760155</v>
       </c>
       <c r="G13">
-        <v>2.30516799729844</v>
+        <v>0.980504508558397</v>
       </c>
       <c r="H13">
-        <v>1.133190315721464</v>
+        <v>0.818897755549358</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3601492377584492</v>
+        <v>0.2129813932858298</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>7.214327007200609</v>
+        <v>3.641604607028341</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2564687469132423</v>
+        <v>0.07717450022919081</v>
       </c>
       <c r="D14">
-        <v>0.1520383493492972</v>
+        <v>0.2154617308370348</v>
       </c>
       <c r="E14">
-        <v>0.2241897903765206</v>
+        <v>0.1825105245772676</v>
       </c>
       <c r="F14">
-        <v>2.625068694479069</v>
+        <v>1.491926318211341</v>
       </c>
       <c r="G14">
-        <v>2.261703831179432</v>
+        <v>0.970645785818931</v>
       </c>
       <c r="H14">
-        <v>1.113712354992259</v>
+        <v>0.8150524626720426</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3536490429371213</v>
+        <v>0.2116459590371704</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>7.081331009791654</v>
+        <v>3.612584123659644</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.253408094347563</v>
+        <v>0.07639728811501811</v>
       </c>
       <c r="D15">
-        <v>0.150845248120433</v>
+        <v>0.2153019231383695</v>
       </c>
       <c r="E15">
-        <v>0.221868126642228</v>
+        <v>0.1820738609860229</v>
       </c>
       <c r="F15">
-        <v>2.595545288824752</v>
+        <v>1.485632054026922</v>
       </c>
       <c r="G15">
-        <v>2.235175567908925</v>
+        <v>0.9646168950918366</v>
       </c>
       <c r="H15">
-        <v>1.101829352767311</v>
+        <v>0.812705344101829</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3496833237655892</v>
+        <v>0.2108302469394232</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>7.000167861205625</v>
+        <v>3.594846060815144</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2359981105519751</v>
+        <v>0.07194951869286115</v>
       </c>
       <c r="D16">
-        <v>0.1440881771053171</v>
+        <v>0.2144115341675104</v>
       </c>
       <c r="E16">
-        <v>0.2087030740100033</v>
+        <v>0.1795993373710516</v>
       </c>
       <c r="F16">
-        <v>2.427972771283407</v>
+        <v>1.449800784119191</v>
       </c>
       <c r="G16">
-        <v>2.084530642780749</v>
+        <v>0.9302184883761697</v>
       </c>
       <c r="H16">
-        <v>1.034430593791825</v>
+        <v>0.7993810632741543</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3271881882923395</v>
+        <v>0.2061906098192026</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>6.539431921497567</v>
+        <v>3.493774967662773</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2254253143610754</v>
+        <v>0.06922635870340343</v>
       </c>
       <c r="D17">
-        <v>0.1400110393972227</v>
+        <v>0.2138879912362484</v>
       </c>
       <c r="E17">
-        <v>0.2007441348771906</v>
+        <v>0.1781060963177268</v>
       </c>
       <c r="F17">
-        <v>2.326525149537318</v>
+        <v>1.42803199014709</v>
       </c>
       <c r="G17">
-        <v>1.993265793041132</v>
+        <v>0.9092502194446865</v>
       </c>
       <c r="H17">
-        <v>0.9936699262118225</v>
+        <v>0.791319464521905</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3135815974574996</v>
+        <v>0.2033753944019594</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>6.260448377678188</v>
+        <v>3.432286183054828</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2193807183142837</v>
+        <v>0.06766203167595108</v>
       </c>
       <c r="D18">
-        <v>0.1376897170550251</v>
+        <v>0.2135952039431004</v>
       </c>
       <c r="E18">
-        <v>0.1962068175573322</v>
+        <v>0.1772563275652033</v>
       </c>
       <c r="F18">
-        <v>2.268638869125255</v>
+        <v>1.415589105775723</v>
       </c>
       <c r="G18">
-        <v>1.941165720373732</v>
+        <v>0.897238903554836</v>
       </c>
       <c r="H18">
-        <v>0.970427034077801</v>
+        <v>0.7867239148270926</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3058217766175204</v>
+        <v>0.2017675400542061</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>6.101238075176695</v>
+        <v>3.397108262714369</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2173401359999048</v>
+        <v>0.06713271233509488</v>
       </c>
       <c r="D19">
-        <v>0.1369077165304446</v>
+        <v>0.2134975042291671</v>
       </c>
       <c r="E19">
-        <v>0.1946772624477333</v>
+        <v>0.1769701731879394</v>
       </c>
       <c r="F19">
-        <v>2.249116163716153</v>
+        <v>1.4113895324179</v>
       </c>
       <c r="G19">
-        <v>1.923590309920883</v>
+        <v>0.8931804903970431</v>
       </c>
       <c r="H19">
-        <v>0.9625907419337807</v>
+        <v>0.7851750244724087</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3032053925994944</v>
+        <v>0.2012251005844519</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>6.047539079919886</v>
+        <v>3.385230004966104</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.226546953791896</v>
+        <v>0.06951604009738332</v>
       </c>
       <c r="D20">
-        <v>0.1404425724239502</v>
+        <v>0.2139428601577862</v>
       </c>
       <c r="E20">
-        <v>0.2015871317795472</v>
+        <v>0.1782641119323713</v>
       </c>
       <c r="F20">
-        <v>2.33727569815116</v>
+        <v>1.430341244444207</v>
       </c>
       <c r="G20">
-        <v>2.002939757164256</v>
+        <v>0.9114772440300101</v>
       </c>
       <c r="H20">
-        <v>0.9979878032271472</v>
+        <v>0.7921733633517363</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3150230730522168</v>
+        <v>0.2036739001437837</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>6.290014877468991</v>
+        <v>3.438812218089765</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2579388148089663</v>
+        <v>0.07754730361043016</v>
       </c>
       <c r="D21">
-        <v>0.1526119399910044</v>
+        <v>0.2155388121710473</v>
       </c>
       <c r="E21">
-        <v>0.2253056609189557</v>
+        <v>0.1827204090742924</v>
       </c>
       <c r="F21">
-        <v>2.639255800891675</v>
+        <v>1.494948815327547</v>
       </c>
       <c r="G21">
-        <v>2.274450371370051</v>
+        <v>0.9735394754995355</v>
       </c>
       <c r="H21">
-        <v>1.11942345486915</v>
+        <v>0.8161802021211031</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3555549778266283</v>
+        <v>0.2120377331520729</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>7.12033191471312</v>
+        <v>3.621100258499723</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2788465529011148</v>
+        <v>0.08281416027634236</v>
       </c>
       <c r="D22">
-        <v>0.1608051247517182</v>
+        <v>0.2166560221208442</v>
       </c>
       <c r="E22">
-        <v>0.241226637927511</v>
+        <v>0.1857141314301245</v>
       </c>
       <c r="F22">
-        <v>2.841483930873437</v>
+        <v>1.537871016488253</v>
       </c>
       <c r="G22">
-        <v>2.45605882224487</v>
+        <v>1.014541625562515</v>
       </c>
       <c r="H22">
-        <v>1.20089041827498</v>
+        <v>0.8322384904946318</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3827407075537366</v>
+        <v>0.2176059498935814</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>7.676198399002999</v>
+        <v>3.741927523114384</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.267648521465162</v>
+        <v>0.08000147273300229</v>
       </c>
       <c r="D23">
-        <v>0.156408865092402</v>
+        <v>0.2160529654801309</v>
       </c>
       <c r="E23">
-        <v>0.2326878646994999</v>
+        <v>0.1841088788204743</v>
       </c>
       <c r="F23">
-        <v>2.7330675924959</v>
+        <v>1.514898655921428</v>
       </c>
       <c r="G23">
-        <v>2.358716164517489</v>
+        <v>0.9926174766380313</v>
       </c>
       <c r="H23">
-        <v>1.157201804679886</v>
+        <v>0.8236341221844725</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3681620771192797</v>
+        <v>0.2146247283204872</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>7.37820809455792</v>
+        <v>3.677284467670063</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2260397558843579</v>
+        <v>0.06938507123919635</v>
       </c>
       <c r="D24">
-        <v>0.14024740600793</v>
+        <v>0.2139180283620732</v>
       </c>
       <c r="E24">
-        <v>0.2012058939590986</v>
+        <v>0.1781926459288243</v>
       </c>
       <c r="F24">
-        <v>2.332414020869876</v>
+        <v>1.429297005451531</v>
       </c>
       <c r="G24">
-        <v>1.998565014724477</v>
+        <v>0.9104702703839962</v>
       </c>
       <c r="H24">
-        <v>0.9960350995069689</v>
+        <v>0.791787193684911</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3143711874815978</v>
+        <v>0.2035389125313571</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>6.27664420598046</v>
+        <v>3.435861259504236</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1825266603406419</v>
+        <v>0.0580082653981151</v>
       </c>
       <c r="D25">
-        <v>0.1237089901939683</v>
+        <v>0.2119340913197121</v>
       </c>
       <c r="E25">
-        <v>0.1687667590320672</v>
+        <v>0.172158948687283</v>
       </c>
       <c r="F25">
-        <v>1.917633945989053</v>
+        <v>1.339939663534125</v>
       </c>
       <c r="G25">
-        <v>1.62480797171807</v>
+        <v>0.8237349345114922</v>
       </c>
       <c r="H25">
-        <v>0.8297563377488189</v>
+        <v>0.7590122234520038</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2588367285281521</v>
+        <v>0.1920158612539069</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.135422001094014</v>
+        <v>3.18265849722826</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_68/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_68/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04969111061828357</v>
+        <v>0.1513533207423308</v>
       </c>
       <c r="D2">
-        <v>0.2107476850597223</v>
+        <v>0.1121655607193546</v>
       </c>
       <c r="E2">
-        <v>0.1680132064088546</v>
+        <v>0.1459082474748037</v>
       </c>
       <c r="F2">
-        <v>1.276671991392575</v>
+        <v>1.623710477617507</v>
       </c>
       <c r="G2">
-        <v>0.7614461594884006</v>
+        <v>1.359162961189156</v>
       </c>
       <c r="H2">
-        <v>0.7362247279381791</v>
+        <v>0.7123881736341673</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1838998710622519</v>
+        <v>0.2195916495683434</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.002323868125757</v>
+        <v>4.325936529764817</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04408939871433404</v>
+        <v>0.1306297015346161</v>
       </c>
       <c r="D3">
-        <v>0.2101148881426838</v>
+        <v>0.1046783009983585</v>
       </c>
       <c r="E3">
-        <v>0.1653876853704439</v>
+        <v>0.1309345934345529</v>
       </c>
       <c r="F3">
-        <v>1.235354089528201</v>
+        <v>1.430159731988297</v>
       </c>
       <c r="G3">
-        <v>0.7201967886405214</v>
+        <v>1.183735308740012</v>
       </c>
       <c r="H3">
-        <v>0.7216148393470121</v>
+        <v>0.6353758814913135</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1786267740461298</v>
+        <v>0.1938054134748057</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.883864273825338</v>
+        <v>3.792358916248475</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04066648080546997</v>
+        <v>0.118063448542955</v>
       </c>
       <c r="D4">
-        <v>0.2098108844848454</v>
+        <v>0.1002290885304049</v>
       </c>
       <c r="E4">
-        <v>0.163866114486094</v>
+        <v>0.121959922051655</v>
       </c>
       <c r="F4">
-        <v>1.210749221148646</v>
+        <v>1.31365559037333</v>
       </c>
       <c r="G4">
-        <v>0.6953400628318036</v>
+        <v>1.077892611268112</v>
       </c>
       <c r="H4">
-        <v>0.7130539717894635</v>
+        <v>0.5891523372850713</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1755003753982791</v>
+        <v>0.1783088153418788</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.812967843030606</v>
+        <v>3.470912885329938</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03927570747256937</v>
+        <v>0.1129768371980475</v>
       </c>
       <c r="D5">
-        <v>0.2097082792852802</v>
+        <v>0.09845080691356856</v>
       </c>
       <c r="E5">
-        <v>0.1632687989183026</v>
+        <v>0.1183528688171691</v>
       </c>
       <c r="F5">
-        <v>1.200914363468556</v>
+        <v>1.26670604545042</v>
       </c>
       <c r="G5">
-        <v>0.6853285548017567</v>
+        <v>1.035176929787681</v>
       </c>
       <c r="H5">
-        <v>0.7096682597508845</v>
+        <v>0.570557832476922</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1742542540484706</v>
+        <v>0.172069738888851</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.784537893400568</v>
+        <v>3.341305405013827</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03904501583093634</v>
+        <v>0.1121341225506569</v>
       </c>
       <c r="D6">
-        <v>0.2096925275957631</v>
+        <v>0.09815755960111261</v>
       </c>
       <c r="E6">
-        <v>0.1631709877360947</v>
+        <v>0.1177568145828864</v>
       </c>
       <c r="F6">
-        <v>1.199292866790941</v>
+        <v>1.258940231840725</v>
       </c>
       <c r="G6">
-        <v>0.6836732519808351</v>
+        <v>1.028107637248908</v>
       </c>
       <c r="H6">
-        <v>0.7091122775099876</v>
+        <v>0.5674841407521711</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.174049020107006</v>
+        <v>0.1710380886572906</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.779844922308769</v>
+        <v>3.319863109774587</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04064770786612826</v>
+        <v>0.1179947171307987</v>
       </c>
       <c r="D7">
-        <v>0.2098094145292961</v>
+        <v>0.1002049681292831</v>
       </c>
       <c r="E7">
-        <v>0.1638579668473596</v>
+        <v>0.1219110790850912</v>
       </c>
       <c r="F7">
-        <v>1.210615808670951</v>
+        <v>1.313020356511331</v>
       </c>
       <c r="G7">
-        <v>0.6952045678090997</v>
+        <v>1.077314917001871</v>
       </c>
       <c r="H7">
-        <v>0.7130078943511364</v>
+        <v>0.5889006175664235</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1754834568576626</v>
+        <v>0.1782243765916718</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.812582562290174</v>
+        <v>3.46915956152219</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04775616062535448</v>
+        <v>0.1441715496644633</v>
       </c>
       <c r="D8">
-        <v>0.2105119633120083</v>
+        <v>0.1095517365382577</v>
       </c>
       <c r="E8">
-        <v>0.1670891265870758</v>
+        <v>0.1406967589342329</v>
       </c>
       <c r="F8">
-        <v>1.262266643986962</v>
+        <v>1.556451209984118</v>
       </c>
       <c r="G8">
-        <v>0.7471253876040294</v>
+        <v>1.298253335191134</v>
       </c>
       <c r="H8">
-        <v>0.7311021441241508</v>
+        <v>0.6855981247848888</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1820585575032538</v>
+        <v>0.2106253666087952</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.96109663284426</v>
+        <v>4.14057293947252</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06183100901742478</v>
+        <v>0.197030212359067</v>
       </c>
       <c r="D9">
-        <v>0.2125597742663388</v>
+        <v>0.1291730613795465</v>
       </c>
       <c r="E9">
-        <v>0.174145148148952</v>
+        <v>0.1795170167056881</v>
       </c>
       <c r="F9">
-        <v>1.369645234141359</v>
+        <v>2.055353575259019</v>
       </c>
       <c r="G9">
-        <v>0.8527049597045959</v>
+        <v>1.749031077697538</v>
       </c>
       <c r="H9">
-        <v>0.7698429204376112</v>
+        <v>0.8848912640508786</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1958398391220157</v>
+        <v>0.2772572791161139</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.266996416250322</v>
+        <v>5.514461767173543</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07226051778398812</v>
+        <v>0.237209710775744</v>
       </c>
       <c r="D10">
-        <v>0.2144724038749786</v>
+        <v>0.1445567155730174</v>
       </c>
       <c r="E10">
-        <v>0.1797709608776827</v>
+        <v>0.2096169174505818</v>
       </c>
       <c r="F10">
-        <v>1.452295328595596</v>
+        <v>2.439613863238591</v>
       </c>
       <c r="G10">
-        <v>0.9326177770774393</v>
+        <v>2.094999986976234</v>
       </c>
       <c r="H10">
-        <v>0.8003065429870162</v>
+        <v>1.039109971570412</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2065133899800884</v>
+        <v>0.328750121915192</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.50081688383699</v>
+        <v>6.571442345150047</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07702584964360426</v>
+        <v>0.2558829333348172</v>
       </c>
       <c r="D11">
-        <v>0.215431072439884</v>
+        <v>0.1518098721261225</v>
       </c>
       <c r="E11">
-        <v>0.1824269134105236</v>
+        <v>0.2237452571431575</v>
       </c>
       <c r="F11">
-        <v>1.490721737755223</v>
+        <v>2.619416415706439</v>
       </c>
       <c r="G11">
-        <v>0.9694922927974687</v>
+        <v>2.256625256362355</v>
       </c>
       <c r="H11">
-        <v>0.8146031334345594</v>
+        <v>1.111437154970048</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2114898347394103</v>
+        <v>0.3528897467783736</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.60918982072053</v>
+        <v>7.065792490401009</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07883345327934421</v>
+        <v>0.2630203435572298</v>
       </c>
       <c r="D12">
-        <v>0.2158068242919313</v>
+        <v>0.1545972474638546</v>
       </c>
       <c r="E12">
-        <v>0.1834466062456741</v>
+        <v>0.229166536685895</v>
       </c>
       <c r="F12">
-        <v>1.505392597165354</v>
+        <v>2.68832877849087</v>
       </c>
       <c r="G12">
-        <v>0.9835314671215656</v>
+        <v>2.318534161272254</v>
       </c>
       <c r="H12">
-        <v>0.8200801398339195</v>
+        <v>1.139182346173527</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2133917932219589</v>
+        <v>0.3621488572635769</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.650518376122136</v>
+        <v>7.255230418049393</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07844401556081948</v>
+        <v>0.2614800670189226</v>
       </c>
       <c r="D13">
-        <v>0.2157253337205844</v>
+        <v>0.1539950538698491</v>
       </c>
       <c r="E13">
-        <v>0.1832263766266991</v>
+        <v>0.2279956557142739</v>
       </c>
       <c r="F13">
-        <v>1.50222763760155</v>
+        <v>2.673448763941678</v>
       </c>
       <c r="G13">
-        <v>0.980504508558397</v>
+        <v>2.30516799729844</v>
       </c>
       <c r="H13">
-        <v>0.818897755549358</v>
+        <v>1.133190315721436</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2129813932858298</v>
+        <v>0.3601492377584634</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.641604607028341</v>
+        <v>7.214327007200609</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07717450022919081</v>
+        <v>0.2564687469134554</v>
       </c>
       <c r="D14">
-        <v>0.2154617308370348</v>
+        <v>0.1520383493492972</v>
       </c>
       <c r="E14">
-        <v>0.1825105245772676</v>
+        <v>0.2241897903765135</v>
       </c>
       <c r="F14">
-        <v>1.491926318211341</v>
+        <v>2.625068694479097</v>
       </c>
       <c r="G14">
-        <v>0.970645785818931</v>
+        <v>2.26170383117946</v>
       </c>
       <c r="H14">
-        <v>0.8150524626720426</v>
+        <v>1.113712354992231</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2116459590371704</v>
+        <v>0.3536490429370929</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.612584123659644</v>
+        <v>7.081331009791654</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07639728811501811</v>
+        <v>0.2534080943475772</v>
       </c>
       <c r="D15">
-        <v>0.2153019231383695</v>
+        <v>0.1508452481205182</v>
       </c>
       <c r="E15">
-        <v>0.1820738609860229</v>
+        <v>0.2218681266422351</v>
       </c>
       <c r="F15">
-        <v>1.485632054026922</v>
+        <v>2.595545288824752</v>
       </c>
       <c r="G15">
-        <v>0.9646168950918366</v>
+        <v>2.23517556790901</v>
       </c>
       <c r="H15">
-        <v>0.812705344101829</v>
+        <v>1.101829352767339</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2108302469394232</v>
+        <v>0.3496833237654613</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.594846060815144</v>
+        <v>7.000167861205625</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07194951869286115</v>
+        <v>0.2359981105521882</v>
       </c>
       <c r="D16">
-        <v>0.2144115341675104</v>
+        <v>0.144088177105516</v>
       </c>
       <c r="E16">
-        <v>0.1795993373710516</v>
+        <v>0.2087030740099607</v>
       </c>
       <c r="F16">
-        <v>1.449800784119191</v>
+        <v>2.42797277128345</v>
       </c>
       <c r="G16">
-        <v>0.9302184883761697</v>
+        <v>2.084530642780777</v>
       </c>
       <c r="H16">
-        <v>0.7993810632741543</v>
+        <v>1.034430593791711</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2061906098192026</v>
+        <v>0.3271881882923395</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.493774967662773</v>
+        <v>6.539431921497567</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06922635870340343</v>
+        <v>0.2254253143612601</v>
       </c>
       <c r="D17">
-        <v>0.2138879912362484</v>
+        <v>0.1400110393973364</v>
       </c>
       <c r="E17">
-        <v>0.1781060963177268</v>
+        <v>0.2007441348771906</v>
       </c>
       <c r="F17">
-        <v>1.42803199014709</v>
+        <v>2.326525149537318</v>
       </c>
       <c r="G17">
-        <v>0.9092502194446865</v>
+        <v>1.993265793041161</v>
       </c>
       <c r="H17">
-        <v>0.791319464521905</v>
+        <v>0.9936699262119078</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2033753944019594</v>
+        <v>0.3135815974575991</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.432286183054828</v>
+        <v>6.260448377678188</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06766203167595108</v>
+        <v>0.2193807183144969</v>
       </c>
       <c r="D18">
-        <v>0.2135952039431004</v>
+        <v>0.1376897170550251</v>
       </c>
       <c r="E18">
-        <v>0.1772563275652033</v>
+        <v>0.1962068175573606</v>
       </c>
       <c r="F18">
-        <v>1.415589105775723</v>
+        <v>2.268638869125226</v>
       </c>
       <c r="G18">
-        <v>0.897238903554836</v>
+        <v>1.94116572037376</v>
       </c>
       <c r="H18">
-        <v>0.7867239148270926</v>
+        <v>0.9704270340777157</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2017675400542061</v>
+        <v>0.3058217766175773</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.397108262714369</v>
+        <v>6.101238075176695</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06713271233509488</v>
+        <v>0.217340135999919</v>
       </c>
       <c r="D19">
-        <v>0.2134975042291671</v>
+        <v>0.1369077165305441</v>
       </c>
       <c r="E19">
-        <v>0.1769701731879394</v>
+        <v>0.1946772624477404</v>
       </c>
       <c r="F19">
-        <v>1.4113895324179</v>
+        <v>2.249116163716124</v>
       </c>
       <c r="G19">
-        <v>0.8931804903970431</v>
+        <v>1.923590309920854</v>
       </c>
       <c r="H19">
-        <v>0.7851750244724087</v>
+        <v>0.9625907419337807</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2012251005844519</v>
+        <v>0.3032053925996649</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.385230004966104</v>
+        <v>6.047539079919886</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06951604009738332</v>
+        <v>0.2265469537916971</v>
       </c>
       <c r="D20">
-        <v>0.2139428601577862</v>
+        <v>0.1404425724240639</v>
       </c>
       <c r="E20">
-        <v>0.1782641119323713</v>
+        <v>0.2015871317795686</v>
       </c>
       <c r="F20">
-        <v>1.430341244444207</v>
+        <v>2.337275698151188</v>
       </c>
       <c r="G20">
-        <v>0.9114772440300101</v>
+        <v>2.002939757164199</v>
       </c>
       <c r="H20">
-        <v>0.7921733633517363</v>
+        <v>0.9979878032271756</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2036739001437837</v>
+        <v>0.3150230730522736</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.438812218089765</v>
+        <v>6.290014877469048</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07754730361043016</v>
+        <v>0.2579388148081136</v>
       </c>
       <c r="D21">
-        <v>0.2155388121710473</v>
+        <v>0.1526119399911039</v>
       </c>
       <c r="E21">
-        <v>0.1827204090742924</v>
+        <v>0.2253056609189485</v>
       </c>
       <c r="F21">
-        <v>1.494948815327547</v>
+        <v>2.639255800891647</v>
       </c>
       <c r="G21">
-        <v>0.9735394754995355</v>
+        <v>2.274450371369966</v>
       </c>
       <c r="H21">
-        <v>0.8161802021211031</v>
+        <v>1.119423454869093</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2120377331520729</v>
+        <v>0.3555549778266283</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.621100258499723</v>
+        <v>7.12033191471312</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08281416027634236</v>
+        <v>0.2788465529009017</v>
       </c>
       <c r="D22">
-        <v>0.2166560221208442</v>
+        <v>0.1608051247517324</v>
       </c>
       <c r="E22">
-        <v>0.1857141314301245</v>
+        <v>0.2412266379275394</v>
       </c>
       <c r="F22">
-        <v>1.537871016488253</v>
+        <v>2.841483930873437</v>
       </c>
       <c r="G22">
-        <v>1.014541625562515</v>
+        <v>2.456058822244813</v>
       </c>
       <c r="H22">
-        <v>0.8322384904946318</v>
+        <v>1.20089041827498</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2176059498935814</v>
+        <v>0.3827407075537366</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.741927523114384</v>
+        <v>7.676198399002999</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08000147273300229</v>
+        <v>0.2676485214649631</v>
       </c>
       <c r="D23">
-        <v>0.2160529654801309</v>
+        <v>0.1564088650922884</v>
       </c>
       <c r="E23">
-        <v>0.1841088788204743</v>
+        <v>0.2326878646995354</v>
       </c>
       <c r="F23">
-        <v>1.514898655921428</v>
+        <v>2.7330675924959</v>
       </c>
       <c r="G23">
-        <v>0.9926174766380313</v>
+        <v>2.35871616451746</v>
       </c>
       <c r="H23">
-        <v>0.8236341221844725</v>
+        <v>1.157201804679886</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2146247283204872</v>
+        <v>0.3681620771192087</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.677284467670063</v>
+        <v>7.378208094557976</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06938507123919635</v>
+        <v>0.2260397558838889</v>
       </c>
       <c r="D24">
-        <v>0.2139180283620732</v>
+        <v>0.1402474060079442</v>
       </c>
       <c r="E24">
-        <v>0.1781926459288243</v>
+        <v>0.2012058939591128</v>
       </c>
       <c r="F24">
-        <v>1.429297005451531</v>
+        <v>2.332414020869862</v>
       </c>
       <c r="G24">
-        <v>0.9104702703839962</v>
+        <v>1.998565014724477</v>
       </c>
       <c r="H24">
-        <v>0.791787193684911</v>
+        <v>0.996035099507111</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2035389125313571</v>
+        <v>0.314371187481612</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.435861259504236</v>
+        <v>6.27664420598046</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0580082653981151</v>
+        <v>0.1825266603407982</v>
       </c>
       <c r="D25">
-        <v>0.2119340913197121</v>
+        <v>0.1237089901939754</v>
       </c>
       <c r="E25">
-        <v>0.172158948687283</v>
+        <v>0.1687667590320174</v>
       </c>
       <c r="F25">
-        <v>1.339939663534125</v>
+        <v>1.917633945989053</v>
       </c>
       <c r="G25">
-        <v>0.8237349345114922</v>
+        <v>1.624807971718155</v>
       </c>
       <c r="H25">
-        <v>0.7590122234520038</v>
+        <v>0.8297563377487336</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1920158612539069</v>
+        <v>0.2588367285282089</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.18265849722826</v>
+        <v>5.1354220010939</v>
       </c>
     </row>
   </sheetData>
